--- a/medicine/Pharmacie/Liste_de_musées_de_la_pharmacie/Liste_de_musées_de_la_pharmacie.xlsx
+++ b/medicine/Pharmacie/Liste_de_musées_de_la_pharmacie/Liste_de_musées_de_la_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste de musées de la pharmacie ou incluant un volet pharmacie dans le monde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Afrique du Sud</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Durban – Old Court Museum
 Johannesburg – Alder Museum History of Medicine – The Pharmacy</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Allemagne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bad Münstereifel – Apotheken-Museum Bad Münstereifel
 Balingen – Museum für Waage und Gewicht
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Argentine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Buenos Aires – Museo de Farmacia Dra Rosa D’Alessio de Carnevale Bonino</t>
         </is>
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Australie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulder – Boulder Pharmacy Museum
 Chiltern – Dow Pharmacy Museum
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Autriche</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Leoben – Josefee Apotheke Leoben
 Vienne – Department für Pharmakognosie Wien – Die historischen Sammlungen</t>
@@ -668,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,7 +708,9 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bruges – HospitaalMuseum
 Bruxelles – Musée pharmaceutique Albert Couvreur
@@ -702,7 +726,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -720,7 +744,9 @@
           <t>Brésil</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Juiz de Fora – Museu de Farmacia Professor Lucas Marques de Amaral
 Ouro Preto – Museu da Farmacia
@@ -735,7 +761,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -753,7 +779,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Niagara-on-the-Lake – Ontario – Niagara Apothecary
 Québec – Monastère des Augustines de l’Hôtel Dieu de Québec
@@ -769,7 +797,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -787,7 +815,9 @@
           <t>Chili</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Santiago - Museo de la historia de la Farmacia prof. César Leyton Caravagno</t>
         </is>
@@ -799,7 +829,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +847,9 @@
           <t>Cuba</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>La Havane – Museo de la Farmacia – Habanera</t>
         </is>
@@ -829,7 +861,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -847,7 +879,9 @@
           <t>Danemark</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Copenhague – Den Farmaceutiske Afdeling, Københavns Universiets Medicinsk-Historiske Museum
 Copenhague – Fonden til Bevarelse af Gammelt Dansk Apoteksinventar
@@ -862,7 +896,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -880,7 +914,9 @@
           <t>Espagne</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Barcelone – Museu Farmacia Catalana
 Gérone – Museo Farmacia del Hospital de Santa Caterina
@@ -895,7 +931,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -913,7 +949,9 @@
           <t>Estonie</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Tallinn – Raeapteek</t>
         </is>
@@ -925,7 +963,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -943,7 +981,9 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Ada – OH – The Pierstorf Family Pharmacy Museum
 Alexandria – VA – The Stabler-Leadbetter Apothecary Museum
@@ -970,7 +1010,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -988,7 +1028,9 @@
           <t>Finlande</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Alajarvi – Alajarven apteekki
 Hauho – Hovinkartanon apteekkimuseo
@@ -1005,7 +1047,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1023,7 +1065,9 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Baugé – Apothicairerie de l’hôtel-Dieu
 Belleville-sur-Saône – Apothicairerie de l’hôtel-Dieu
@@ -1061,7 +1105,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1079,7 +1123,9 @@
           <t>Hongrie</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Budapest – Golden Eagle Pharmacy Museum
 Eger – Telekessy Pharmacy Museum
@@ -1093,7 +1139,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1111,7 +1157,9 @@
           <t>Italie</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Bressanone  – il Museo della Farmacia di Bressanone
 Faenza – Museo Internationale della Ceramiche
@@ -1129,7 +1177,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1147,7 +1195,9 @@
           <t>Japon</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Gifu – The Naito Museum of Pharmaceutical Science and Industry</t>
         </is>
@@ -1159,7 +1209,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1177,7 +1227,9 @@
           <t>Lettonie</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Riga – Farmacijas Muzejs</t>
         </is>
@@ -1189,7 +1241,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1207,7 +1259,9 @@
           <t>Lituanie</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Kaunas – Musée de l'histoire de la médecine et de la pharmacie lithuanienne
 Viekšniai – Musée de l'histoire de la pharmacie à Vieskniai</t>
@@ -1220,7 +1274,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1238,7 +1292,9 @@
           <t>Norvège</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Oslo – Norsk Farmasihistorisk Museum
 Svelvik – Svelvik Museum</t>
@@ -1251,7 +1307,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1269,7 +1325,9 @@
           <t>Pologne</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Cracovie – Muzeum Farmacji
 Poznan – Museum of Pharmacy</t>
@@ -1282,7 +1340,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1300,7 +1358,9 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Lisbonne – Museu da Farmácia</t>
         </is>
@@ -1312,7 +1372,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1330,7 +1390,9 @@
           <t>République Tchèque</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Kurks – Hradec Kralove : Tjekiska Farmaciamuseet et Czech Pharmaceutical Museum</t>
         </is>
@@ -1342,7 +1404,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1360,7 +1422,9 @@
           <t>Roumanie</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Cluj – Muzeul national de istorie a transilvaniei – Colectia de Istorie a Famaciei
 Sibiu – Bruhenthal National Museum – The Museum of Pharmacy</t>
@@ -1373,7 +1437,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1391,7 +1455,9 @@
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Bradford on Avon – Christopher Collection – Bradford on Avon Museum
 Dudley – Emilie Doo’s Chemist Shop
@@ -1410,7 +1476,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1428,7 +1494,9 @@
           <t>Slovaquie</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Bratislava – Pharmaceutic exhibition – City Museum</t>
         </is>
@@ -1440,7 +1508,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1458,7 +1526,9 @@
           <t>Suède</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Borås – Medicinhistorika museet
 Goteborg – Medicinhistorika museet i Oterdalska huset
@@ -1479,7 +1549,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1497,7 +1567,9 @@
           <t>Suisse</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Bâle – Musée de la pharmacie de Université de Bâle
 Genève – Musée de l’histoire de la pharmacie
@@ -1511,7 +1583,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_pharmacie</t>
+          <t>Liste_de_musées_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1529,7 +1601,9 @@
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Lviv – Antique Pharmacy Museum</t>
         </is>
